--- a/docs/_files/examples/MFMC_T1_CORR.xlsx
+++ b/docs/_files/examples/MFMC_T1_CORR.xlsx
@@ -59610,7 +59610,7 @@
   </mergeCells>
   <dataValidations count="2">
     <dataValidation sqref="A4:A20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
-      <formula1>'ACC.LBLTY_RMNNG_'!$A$1:$A$12</formula1>
+      <formula1>'ACC.LBLTY_RMNNG_'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation sqref="D4:D20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
       <formula1>'ACC.LBLTY_RMNNG_'!$B$1:$B$35</formula1>
@@ -59770,11 +59770,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>RL11</t>
-        </is>
-      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>A3</t>
@@ -59953,7 +59948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
@@ -59970,9 +59965,7 @@
     <col width="13.5" customWidth="1" min="4" max="4"/>
     <col width="13.5" customWidth="1" min="5" max="5"/>
     <col width="14.85" customWidth="1" min="6" max="6"/>
-    <col width="22.95" customWidth="1" min="7" max="7"/>
-    <col width="13.5" customWidth="1" min="8" max="8"/>
-    <col width="20.25" customWidth="1" min="9" max="9"/>
+    <col width="13.5" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="60" customHeight="1">
@@ -59990,9 +59983,7 @@
         </is>
       </c>
       <c r="F1" s="8" t="n"/>
-      <c r="G1" s="8" t="n"/>
-      <c r="H1" s="8" t="n"/>
-      <c r="I1" s="9" t="n"/>
+      <c r="G1" s="9" t="n"/>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="10" t="inlineStr">
@@ -60009,9 +60000,7 @@
         </is>
       </c>
       <c r="F2" s="8" t="n"/>
-      <c r="G2" s="8" t="n"/>
-      <c r="H2" s="8" t="n"/>
-      <c r="I2" s="9" t="n"/>
+      <c r="G2" s="9" t="n"/>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="10" t="inlineStr">
@@ -60046,17 +60035,7 @@
       </c>
       <c r="G3" s="7" t="inlineStr">
         <is>
-          <t>SBSCRPTNS_CHRGS</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
           <t>RDMPTNS</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>RDMPTNS_CHRGS</t>
         </is>
       </c>
     </row>
@@ -60068,8 +60047,6 @@
       <c r="E4" s="13" t="inlineStr"/>
       <c r="F4" s="13" t="inlineStr"/>
       <c r="G4" s="13" t="inlineStr"/>
-      <c r="H4" s="13" t="inlineStr"/>
-      <c r="I4" s="13" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="11" t="n"/>
@@ -60079,8 +60056,6 @@
       <c r="E5" s="13" t="n"/>
       <c r="F5" s="13" t="n"/>
       <c r="G5" s="13" t="n"/>
-      <c r="H5" s="13" t="n"/>
-      <c r="I5" s="13" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="11" t="n"/>
@@ -60090,8 +60065,6 @@
       <c r="E6" s="13" t="n"/>
       <c r="F6" s="13" t="n"/>
       <c r="G6" s="13" t="n"/>
-      <c r="H6" s="13" t="n"/>
-      <c r="I6" s="13" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="11" t="n"/>
@@ -60101,8 +60074,6 @@
       <c r="E7" s="13" t="n"/>
       <c r="F7" s="13" t="n"/>
       <c r="G7" s="13" t="n"/>
-      <c r="H7" s="13" t="n"/>
-      <c r="I7" s="13" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="11" t="n"/>
@@ -60112,8 +60083,6 @@
       <c r="E8" s="13" t="n"/>
       <c r="F8" s="13" t="n"/>
       <c r="G8" s="13" t="n"/>
-      <c r="H8" s="13" t="n"/>
-      <c r="I8" s="13" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="11" t="n"/>
@@ -60123,8 +60092,6 @@
       <c r="E9" s="13" t="n"/>
       <c r="F9" s="13" t="n"/>
       <c r="G9" s="13" t="n"/>
-      <c r="H9" s="13" t="n"/>
-      <c r="I9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="11" t="n"/>
@@ -60134,8 +60101,6 @@
       <c r="E10" s="13" t="n"/>
       <c r="F10" s="13" t="n"/>
       <c r="G10" s="13" t="n"/>
-      <c r="H10" s="13" t="n"/>
-      <c r="I10" s="13" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="11" t="n"/>
@@ -60145,8 +60110,6 @@
       <c r="E11" s="13" t="n"/>
       <c r="F11" s="13" t="n"/>
       <c r="G11" s="13" t="n"/>
-      <c r="H11" s="13" t="n"/>
-      <c r="I11" s="13" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="11" t="n"/>
@@ -60156,8 +60119,6 @@
       <c r="E12" s="13" t="n"/>
       <c r="F12" s="13" t="n"/>
       <c r="G12" s="13" t="n"/>
-      <c r="H12" s="13" t="n"/>
-      <c r="I12" s="13" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="11" t="n"/>
@@ -60167,8 +60128,6 @@
       <c r="E13" s="13" t="n"/>
       <c r="F13" s="13" t="n"/>
       <c r="G13" s="13" t="n"/>
-      <c r="H13" s="13" t="n"/>
-      <c r="I13" s="13" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="11" t="n"/>
@@ -60178,8 +60137,6 @@
       <c r="E14" s="13" t="n"/>
       <c r="F14" s="13" t="n"/>
       <c r="G14" s="13" t="n"/>
-      <c r="H14" s="13" t="n"/>
-      <c r="I14" s="13" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="11" t="n"/>
@@ -60189,8 +60146,6 @@
       <c r="E15" s="13" t="n"/>
       <c r="F15" s="13" t="n"/>
       <c r="G15" s="13" t="n"/>
-      <c r="H15" s="13" t="n"/>
-      <c r="I15" s="13" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="11" t="n"/>
@@ -60200,8 +60155,6 @@
       <c r="E16" s="13" t="n"/>
       <c r="F16" s="13" t="n"/>
       <c r="G16" s="13" t="n"/>
-      <c r="H16" s="13" t="n"/>
-      <c r="I16" s="13" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="11" t="n"/>
@@ -60211,8 +60164,6 @@
       <c r="E17" s="13" t="n"/>
       <c r="F17" s="13" t="n"/>
       <c r="G17" s="13" t="n"/>
-      <c r="H17" s="13" t="n"/>
-      <c r="I17" s="13" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="11" t="n"/>
@@ -60222,8 +60173,6 @@
       <c r="E18" s="13" t="n"/>
       <c r="F18" s="13" t="n"/>
       <c r="G18" s="13" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="13" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="11" t="n"/>
@@ -60233,8 +60182,6 @@
       <c r="E19" s="13" t="n"/>
       <c r="F19" s="13" t="n"/>
       <c r="G19" s="13" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="13" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="11" t="n"/>
@@ -60244,8 +60191,6 @@
       <c r="E20" s="13" t="n"/>
       <c r="F20" s="13" t="n"/>
       <c r="G20" s="13" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="13" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="11" t="n"/>
@@ -60255,8 +60200,6 @@
       <c r="E21" s="13" t="n"/>
       <c r="F21" s="13" t="n"/>
       <c r="G21" s="13" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="13" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="11" t="n"/>
@@ -60266,8 +60209,6 @@
       <c r="E22" s="13" t="n"/>
       <c r="F22" s="13" t="n"/>
       <c r="G22" s="13" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="13" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="11" t="n"/>
@@ -60277,15 +60218,13 @@
       <c r="E23" s="13" t="n"/>
       <c r="F23" s="13" t="n"/>
       <c r="G23" s="13" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="13" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="E1:I1"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E2:G2"/>
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E1:G1"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation sqref="D4:D20" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="0" type="list">
